--- a/imagereport.xlsx
+++ b/imagereport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils/dev/github/nilsujma-io/jenkins-exclusions-job/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils/dev/github/nilsujma-dev/CloudGuard-Shiftleft-Automated-CVE-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898CB7DA-C911-E844-9099-F6524DA96C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A3834-247F-904D-84DA-A6965892C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="178">
   <si>
     <t>Image Name</t>
   </si>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,6 +1229,9 @@
       <c r="J5" t="s">
         <v>38</v>
       </c>
+      <c r="K5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1364,7 +1367,7 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1465,6 +1468,9 @@
       <c r="J12" t="s">
         <v>33</v>
       </c>
+      <c r="K12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1497,6 +1503,9 @@
       <c r="J13" t="s">
         <v>33</v>
       </c>
+      <c r="K13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1529,6 +1538,9 @@
       <c r="J14" t="s">
         <v>33</v>
       </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1628,6 +1640,9 @@
       <c r="J17" t="s">
         <v>33</v>
       </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1660,6 +1675,9 @@
       <c r="J18" t="s">
         <v>33</v>
       </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2012,6 +2030,9 @@
       <c r="J29" t="s">
         <v>83</v>
       </c>
+      <c r="K29" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3100,6 +3121,9 @@
       </c>
       <c r="J62" t="s">
         <v>60</v>
+      </c>
+      <c r="K62" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
